--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N2">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q2">
-        <v>245.0097990314189</v>
+        <v>29.73155126337923</v>
       </c>
       <c r="R2">
-        <v>245.0097990314189</v>
+        <v>267.583961370413</v>
       </c>
       <c r="S2">
-        <v>0.1378246908929596</v>
+        <v>0.01466903478560079</v>
       </c>
       <c r="T2">
-        <v>0.1378246908929596</v>
+        <v>0.01466903478560078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q3">
-        <v>266.7204389570414</v>
+        <v>32.37212815573734</v>
       </c>
       <c r="R3">
-        <v>266.7204389570414</v>
+        <v>291.349153401636</v>
       </c>
       <c r="S3">
-        <v>0.1500375176805672</v>
+        <v>0.01597184989756452</v>
       </c>
       <c r="T3">
-        <v>0.1500375176805672</v>
+        <v>0.01597184989756451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N4">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q4">
-        <v>497.6996904538996</v>
+        <v>61.62576961626623</v>
       </c>
       <c r="R4">
-        <v>497.6996904538996</v>
+        <v>554.631926546396</v>
       </c>
       <c r="S4">
-        <v>0.2799696431142905</v>
+        <v>0.03040509222617952</v>
       </c>
       <c r="T4">
-        <v>0.2799696431142905</v>
+        <v>0.0304050922261795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N5">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q5">
-        <v>504.6371776741734</v>
+        <v>62.25166817276622</v>
       </c>
       <c r="R5">
-        <v>504.6371776741734</v>
+        <v>560.2650135548961</v>
       </c>
       <c r="S5">
-        <v>0.2838721687907654</v>
+        <v>0.0307138997827117</v>
       </c>
       <c r="T5">
-        <v>0.2838721687907654</v>
+        <v>0.03071389978271169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N6">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q6">
-        <v>24.98642158002091</v>
+        <v>3.055747074682334</v>
       </c>
       <c r="R6">
-        <v>24.98642158002091</v>
+        <v>27.501723672141</v>
       </c>
       <c r="S6">
-        <v>0.0140555432656224</v>
+        <v>0.001507652921888553</v>
       </c>
       <c r="T6">
-        <v>0.0140555432656224</v>
+        <v>0.001507652921888553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N7">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q7">
-        <v>9.239491936426896</v>
+        <v>247.9125460653401</v>
       </c>
       <c r="R7">
-        <v>9.239491936426896</v>
+        <v>2231.21291458806</v>
       </c>
       <c r="S7">
-        <v>0.005197466081684067</v>
+        <v>0.1223157759177749</v>
       </c>
       <c r="T7">
-        <v>0.005197466081684067</v>
+        <v>0.1223157759177749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q8">
-        <v>10.05821544593736</v>
+        <v>269.93064174648</v>
       </c>
       <c r="R8">
-        <v>10.05821544593736</v>
+        <v>2429.37577571832</v>
       </c>
       <c r="S8">
-        <v>0.005658020374088545</v>
+        <v>0.1331791247083627</v>
       </c>
       <c r="T8">
-        <v>0.005658020374088545</v>
+        <v>0.1331791247083626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N9">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q9">
-        <v>18.76860556145054</v>
+        <v>513.8582011232801</v>
       </c>
       <c r="R9">
-        <v>18.76860556145054</v>
+        <v>4624.723810109521</v>
       </c>
       <c r="S9">
-        <v>0.01055785225825636</v>
+        <v>0.2535287768999817</v>
       </c>
       <c r="T9">
-        <v>0.01055785225825636</v>
+        <v>0.2535287768999816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N10">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q10">
-        <v>19.03022308648089</v>
+        <v>519.0771721532801</v>
       </c>
       <c r="R10">
-        <v>19.03022308648089</v>
+        <v>4671.694549379521</v>
       </c>
       <c r="S10">
-        <v>0.01070501924774834</v>
+        <v>0.2561037272248377</v>
       </c>
       <c r="T10">
-        <v>0.01070501924774834</v>
+        <v>0.2561037272248377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N11">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P11">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q11">
-        <v>0.9422555408861892</v>
+        <v>25.47993647238001</v>
       </c>
       <c r="R11">
-        <v>0.9422555408861892</v>
+        <v>229.31942825142</v>
       </c>
       <c r="S11">
-        <v>0.0005300444275217092</v>
+        <v>0.01257136135068113</v>
       </c>
       <c r="T11">
-        <v>0.0005300444275217092</v>
+        <v>0.01257136135068113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N12">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P12">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q12">
-        <v>28.75052710151467</v>
+        <v>9.972302867799002</v>
       </c>
       <c r="R12">
-        <v>28.75052710151467</v>
+        <v>89.750725810191</v>
       </c>
       <c r="S12">
-        <v>0.01617295523052847</v>
+        <v>0.004920162300460594</v>
       </c>
       <c r="T12">
-        <v>0.01617295523052847</v>
+        <v>0.004920162300460594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P13">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q13">
-        <v>31.29814904986291</v>
+        <v>10.857982605228</v>
       </c>
       <c r="R13">
-        <v>31.29814904986291</v>
+        <v>97.72184344705201</v>
       </c>
       <c r="S13">
-        <v>0.01760606202434364</v>
+        <v>0.005357141412722734</v>
       </c>
       <c r="T13">
-        <v>0.01760606202434364</v>
+        <v>0.005357141412722734</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N14">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P14">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q14">
-        <v>58.40227001278168</v>
+        <v>20.669989050708</v>
       </c>
       <c r="R14">
-        <v>58.40227001278168</v>
+        <v>186.029901456372</v>
       </c>
       <c r="S14">
-        <v>0.03285286892107771</v>
+        <v>0.01019821622211451</v>
       </c>
       <c r="T14">
-        <v>0.03285286892107771</v>
+        <v>0.0101982162221145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N15">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P15">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q15">
-        <v>59.21634526663434</v>
+        <v>20.879922596208</v>
       </c>
       <c r="R15">
-        <v>59.21634526663434</v>
+        <v>187.919303365872</v>
       </c>
       <c r="S15">
-        <v>0.03331080844296378</v>
+        <v>0.01030179381395705</v>
       </c>
       <c r="T15">
-        <v>0.03331080844296378</v>
+        <v>0.01030179381395705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.434611</v>
+      </c>
+      <c r="N16">
+        <v>10.303833</v>
+      </c>
+      <c r="O16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q16">
+        <v>1.024932572343</v>
+      </c>
+      <c r="R16">
+        <v>9.224393151087002</v>
+      </c>
+      <c r="S16">
+        <v>0.000505684060122127</v>
+      </c>
+      <c r="T16">
+        <v>0.000505684060122127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41778966666667</v>
+      </c>
+      <c r="N17">
+        <v>100.253369</v>
+      </c>
+      <c r="O17">
+        <v>0.1572791178915017</v>
+      </c>
+      <c r="P17">
+        <v>0.1572791178915016</v>
+      </c>
+      <c r="Q17">
+        <v>31.16068531700067</v>
+      </c>
+      <c r="R17">
+        <v>280.446167853006</v>
+      </c>
+      <c r="S17">
+        <v>0.01537414488766537</v>
+      </c>
+      <c r="T17">
+        <v>0.01537414488766536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>36.385756</v>
+      </c>
+      <c r="N18">
+        <v>109.157268</v>
+      </c>
+      <c r="O18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="P18">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="Q18">
+        <v>33.928189268248</v>
+      </c>
+      <c r="R18">
+        <v>305.353703414232</v>
+      </c>
+      <c r="S18">
+        <v>0.01673958362210968</v>
+      </c>
+      <c r="T18">
+        <v>0.01673958362210968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="N16">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="O16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="P16">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="Q16">
-        <v>2.932016570954133</v>
-      </c>
-      <c r="R16">
-        <v>2.932016570954133</v>
-      </c>
-      <c r="S16">
-        <v>0.001649339247582372</v>
-      </c>
-      <c r="T16">
-        <v>0.001649339247582372</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>69.26638266666667</v>
+      </c>
+      <c r="N19">
+        <v>207.799148</v>
+      </c>
+      <c r="O19">
+        <v>0.3259986873463135</v>
+      </c>
+      <c r="P19">
+        <v>0.3259986873463134</v>
+      </c>
+      <c r="Q19">
+        <v>64.58799264859468</v>
+      </c>
+      <c r="R19">
+        <v>581.2919338373521</v>
+      </c>
+      <c r="S19">
+        <v>0.03186660199803779</v>
+      </c>
+      <c r="T19">
+        <v>0.03186660199803777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.96988266666666</v>
+      </c>
+      <c r="N20">
+        <v>209.909648</v>
+      </c>
+      <c r="O20">
+        <v>0.3293096741153468</v>
+      </c>
+      <c r="P20">
+        <v>0.3293096741153467</v>
+      </c>
+      <c r="Q20">
+        <v>65.24397685159467</v>
+      </c>
+      <c r="R20">
+        <v>587.1957916643521</v>
+      </c>
+      <c r="S20">
+        <v>0.03219025329384029</v>
+      </c>
+      <c r="T20">
+        <v>0.03219025329384029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.434611</v>
+      </c>
+      <c r="N21">
+        <v>10.303833</v>
+      </c>
+      <c r="O21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P21">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q21">
+        <v>3.202630503838001</v>
+      </c>
+      <c r="R21">
+        <v>28.82367453454201</v>
+      </c>
+      <c r="S21">
+        <v>0.001580122673386744</v>
+      </c>
+      <c r="T21">
+        <v>0.001580122673386743</v>
       </c>
     </row>
   </sheetData>
